--- a/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
+++ b/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t xml:space="preserve">Aufgaben</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">TIM1</t>
   </si>
   <si>
+    <t xml:space="preserve">Temperatur</t>
+  </si>
+  <si>
     <t xml:space="preserve">ADC1</t>
   </si>
   <si>
@@ -281,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">PA8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperatur</t>
   </si>
   <si>
     <t xml:space="preserve">PB8</t>
@@ -484,7 +484,7 @@
   <dimension ref="B1:O46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J8" activeCellId="0" sqref="J8"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,291 +548,294 @@
       <c r="B13" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2"/>
       <c r="H33" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>88</v>

--- a/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
+++ b/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
@@ -20,50 +20,116 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
   <si>
     <t xml:space="preserve">Aufgaben</t>
   </si>
   <si>
+    <t xml:space="preserve">CAN zu Autobox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1_RX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Brücke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_IN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_Enable_ext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_Enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H_IN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stromsensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Stromsensor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Stromsensor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spannungssensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagesensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_Analog1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_Analog2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatursensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T_Analog_TIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zusatzsensorik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spannungsteiler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiederstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peripherien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position_Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verb. Zu Autobox</t>
   </si>
   <si>
-    <t xml:space="preserve">H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peripherien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aufgabe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USART</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Temperatur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Position_Sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1</t>
-  </si>
-  <si>
     <t xml:space="preserve">USART1</t>
   </si>
   <si>
@@ -94,7 +160,7 @@
     <t xml:space="preserve">ADC3</t>
   </si>
   <si>
-    <t xml:space="preserve">I_Sensor</t>
+    <t xml:space="preserve">H-Stromsensor</t>
   </si>
   <si>
     <t xml:space="preserve">USART3</t>
@@ -163,18 +229,12 @@
     <t xml:space="preserve">PA0</t>
   </si>
   <si>
-    <t xml:space="preserve">U_Sensor_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB0</t>
   </si>
   <si>
     <t xml:space="preserve">PC0</t>
   </si>
   <si>
-    <t xml:space="preserve">I_Sensor_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PD2</t>
   </si>
   <si>
@@ -187,19 +247,13 @@
     <t xml:space="preserve">PA1</t>
   </si>
   <si>
-    <t xml:space="preserve">H_IN2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB1</t>
   </si>
   <si>
-    <t xml:space="preserve">Position_Sensor_ADC</t>
-  </si>
-  <si>
     <t xml:space="preserve">PC1</t>
   </si>
   <si>
-    <t xml:space="preserve">I_Sensor_2</t>
+    <t xml:space="preserve">Zusatzsensor_an</t>
   </si>
   <si>
     <t xml:space="preserve">PH1</t>
@@ -220,9 +274,6 @@
     <t xml:space="preserve">PC2</t>
   </si>
   <si>
-    <t xml:space="preserve">H_Enable</t>
-  </si>
-  <si>
     <t xml:space="preserve">PA3</t>
   </si>
   <si>
@@ -241,9 +292,6 @@
     <t xml:space="preserve">PA4</t>
   </si>
   <si>
-    <t xml:space="preserve">U_Sensor_2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB4</t>
   </si>
   <si>
@@ -253,9 +301,6 @@
     <t xml:space="preserve">PA5</t>
   </si>
   <si>
-    <t xml:space="preserve">U_Sensor_3</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB5</t>
   </si>
   <si>
@@ -265,9 +310,6 @@
     <t xml:space="preserve">PA6</t>
   </si>
   <si>
-    <t xml:space="preserve">H_Enable_ext</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB6</t>
   </si>
   <si>
@@ -292,6 +334,9 @@
     <t xml:space="preserve">PC8</t>
   </si>
   <si>
+    <t xml:space="preserve">T_TIM</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA9</t>
   </si>
   <si>
@@ -313,22 +358,13 @@
     <t xml:space="preserve">PA11</t>
   </si>
   <si>
-    <t xml:space="preserve">CAN1_RX</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB11</t>
   </si>
   <si>
-    <t xml:space="preserve">H_IN1</t>
-  </si>
-  <si>
     <t xml:space="preserve">PC11</t>
   </si>
   <si>
     <t xml:space="preserve">PA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAN1_TX</t>
   </si>
   <si>
     <t xml:space="preserve">PB12</t>
@@ -377,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -402,6 +438,14 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -451,12 +495,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,12 +514,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -483,15 +531,17 @@
   </sheetPr>
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.64"/>
@@ -507,433 +557,508 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
+        <v>41</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>66</v>
+        <v>83</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>94</v>
+        <v>109</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
+++ b/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
   <si>
     <t xml:space="preserve">Aufgaben</t>
   </si>
@@ -40,15 +40,12 @@
     <t xml:space="preserve">H_IN2</t>
   </si>
   <si>
-    <t xml:space="preserve">H_Enable_ext</t>
+    <t xml:space="preserve">H_IN1</t>
   </si>
   <si>
     <t xml:space="preserve">H_Enable</t>
   </si>
   <si>
-    <t xml:space="preserve">H_IN1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stromsensor</t>
   </si>
   <si>
@@ -61,7 +58,7 @@
     <t xml:space="preserve">Spannungssensor</t>
   </si>
   <si>
-    <t xml:space="preserve">12V</t>
+    <t xml:space="preserve">U_Sensor (12V)</t>
   </si>
   <si>
     <t xml:space="preserve">Lagesensor</t>
@@ -82,16 +79,22 @@
     <t xml:space="preserve">Temperatursensor</t>
   </si>
   <si>
-    <t xml:space="preserve">T_Analog_TIM</t>
+    <t xml:space="preserve">T_TIM</t>
   </si>
   <si>
     <t xml:space="preserve">Zusatzsensorik</t>
   </si>
   <si>
-    <t xml:space="preserve">Spannungsteiler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiederstand</t>
+    <t xml:space="preserve">Zusatzsensor_an</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USART2_RX</t>
   </si>
   <si>
     <t xml:space="preserve">Peripherien</t>
@@ -109,9 +112,6 @@
     <t xml:space="preserve">CAN</t>
   </si>
   <si>
-    <t xml:space="preserve">USART</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIM1</t>
   </si>
   <si>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">ADC2</t>
   </si>
   <si>
-    <t xml:space="preserve">U_Sensor</t>
+    <t xml:space="preserve">H-Stromsensor (2x)</t>
   </si>
   <si>
     <t xml:space="preserve">CAN2</t>
@@ -160,7 +160,7 @@
     <t xml:space="preserve">ADC3</t>
   </si>
   <si>
-    <t xml:space="preserve">H-Stromsensor</t>
+    <t xml:space="preserve">Zusatzsensor_an (2x)</t>
   </si>
   <si>
     <t xml:space="preserve">USART3</t>
@@ -253,9 +253,6 @@
     <t xml:space="preserve">PC1</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusatzsensor_an</t>
-  </si>
-  <si>
     <t xml:space="preserve">PH1</t>
   </si>
   <si>
@@ -265,9 +262,6 @@
     <t xml:space="preserve">PA2</t>
   </si>
   <si>
-    <t xml:space="preserve">USART2_TX</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB2</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t xml:space="preserve">PA3</t>
   </si>
   <si>
-    <t xml:space="preserve">USART2_RX</t>
-  </si>
-  <si>
     <t xml:space="preserve">PB3</t>
   </si>
   <si>
@@ -332,9 +323,6 @@
   </si>
   <si>
     <t xml:space="preserve">PC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_TIM</t>
   </si>
   <si>
     <t xml:space="preserve">PA9</t>
@@ -413,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -438,6 +426,16 @@
     </font>
     <font>
       <b val="true"/>
+      <i val="true"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -446,6 +444,21 @@
     </font>
     <font>
       <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -495,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,6 +518,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,8 +556,8 @@
   </sheetPr>
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -543,12 +568,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.45"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,10 +583,10 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -568,106 +594,115 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="F12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>26</v>
+      <c r="L12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -683,13 +718,13 @@
       <c r="F13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="L13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="N13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -706,13 +741,16 @@
       <c r="F14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="N14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="O14" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -723,10 +761,11 @@
       <c r="E15" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="G15" s="3"/>
+      <c r="N15" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -734,7 +773,7 @@
       <c r="B16" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="N16" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -742,7 +781,7 @@
       <c r="B17" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="N17" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -750,7 +789,7 @@
       <c r="B18" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="N18" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -795,24 +834,24 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="5" t="s">
         <v>67</v>
       </c>
     </row>
@@ -820,17 +859,17 @@
       <c r="B31" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>18</v>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="F31" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H31" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>71</v>
@@ -846,219 +885,219 @@
       <c r="B32" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="0" t="s">
-        <v>17</v>
+      <c r="C32" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>75</v>
       </c>
+      <c r="F32" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="H32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="N32" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="O32" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="I33" s="3" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="H34" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>11</v>
+      <c r="I34" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>8</v>
+        <v>108</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
+++ b/Platinenentwurf/weitere_bauteile/STM32F405RGTx_PINout.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="129">
   <si>
     <t xml:space="preserve">Aufgaben</t>
   </si>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">Temperatursensor</t>
   </si>
   <si>
-    <t xml:space="preserve">T_TIM</t>
+    <t xml:space="preserve">Temp_AN</t>
   </si>
   <si>
     <t xml:space="preserve">Zusatzsensorik</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusatzsensor_an</t>
+    <t xml:space="preserve">Zusatzsensor_AN</t>
   </si>
   <si>
     <t xml:space="preserve">USART</t>
@@ -160,9 +160,6 @@
     <t xml:space="preserve">ADC3</t>
   </si>
   <si>
-    <t xml:space="preserve">Zusatzsensor_an (2x)</t>
-  </si>
-  <si>
     <t xml:space="preserve">USART3</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
     <t xml:space="preserve">PA0</t>
   </si>
   <si>
+    <t xml:space="preserve">L_Analog2 [L_2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB0</t>
   </si>
   <si>
@@ -247,6 +247,9 @@
     <t xml:space="preserve">PA1</t>
   </si>
   <si>
+    <t xml:space="preserve">L_Analog1 [L_1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">PB1</t>
   </si>
   <si>
@@ -262,15 +265,86 @@
     <t xml:space="preserve">PA2</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USART2_TX [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">U_TX</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">PB2</t>
   </si>
   <si>
     <t xml:space="preserve">PC2</t>
   </si>
   <si>
+    <t xml:space="preserve">Zusatzsensor_AN [Z1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">PA3</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">USART2_RX [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">U_RX</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">PB3</t>
   </si>
   <si>
@@ -278,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve">PC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temp_AN [T_1]</t>
   </si>
   <si>
     <t xml:space="preserve">PA4</t>
@@ -401,7 +478,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -451,13 +528,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -474,12 +544,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -508,7 +585,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -517,11 +594,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,11 +614,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,15 +641,15 @@
   </sheetPr>
   <dimension ref="B1:O46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I38" activeCellId="0" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.26"/>
@@ -589,6 +674,8 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="2" t="s">
@@ -603,6 +690,7 @@
       <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
@@ -614,6 +702,8 @@
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
@@ -622,15 +712,18 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -644,23 +737,25 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="2" t="s">
@@ -672,433 +767,490 @@
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="G12" s="4"/>
+      <c r="K12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="G13" s="4"/>
+      <c r="K13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="L14" s="4"/>
+      <c r="N14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="0" t="s">
+      <c r="O14" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="C15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="4"/>
+      <c r="N16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="4"/>
+      <c r="N17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="4"/>
+      <c r="N18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="s">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="4"/>
+      <c r="E30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="4"/>
+      <c r="H30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="4"/>
+      <c r="K30" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="N30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="I31" s="4"/>
+      <c r="K31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="0" t="s">
+      <c r="N31" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O31" s="0" t="s">
+      <c r="O31" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="0" t="s">
         <v>75</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="0" t="s">
+      <c r="H32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="I32" s="4"/>
+      <c r="N32" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="O32" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>79</v>
+      <c r="B33" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>91</v>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>94</v>
-      </c>
+      <c r="B37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>97</v>
-      </c>
+      <c r="B38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="H38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="H39" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>103</v>
-      </c>
+      <c r="B40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>105</v>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>106</v>
-      </c>
+      <c r="H41" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>107</v>
+      <c r="B42" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>108</v>
+      <c r="E42" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>109</v>
-      </c>
+      <c r="H42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>110</v>
+      <c r="B43" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>112</v>
-      </c>
+      <c r="E43" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>116</v>
-      </c>
+      <c r="B44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>120</v>
-      </c>
+      <c r="B45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>123</v>
-      </c>
+      <c r="B46" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I46" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
